--- a/Jogos_do_Dia/2024-03-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -697,10 +697,10 @@
         <v>4</v>
       </c>
       <c r="K2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L2">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M2">
         <v>1.4</v>
@@ -721,10 +721,10 @@
         <v>3.35</v>
       </c>
       <c r="S2">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U2">
         <v>1.76</v>
@@ -757,43 +757,43 @@
         <v>3.27</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -825,13 +825,13 @@
         <v>2.4</v>
       </c>
       <c r="J3">
-        <v>3.4</v>
+        <v>3.71</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="M3">
         <v>1.33</v>
@@ -852,10 +852,10 @@
         <v>4.32</v>
       </c>
       <c r="S3">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="T3">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="U3">
         <v>1.67</v>
@@ -888,43 +888,43 @@
         <v>2.98</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-03-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -694,13 +694,13 @@
         <v>2.4</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L2">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="M2">
         <v>1.4</v>
@@ -721,10 +721,10 @@
         <v>3.35</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T2">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U2">
         <v>1.76</v>
@@ -825,13 +825,13 @@
         <v>2.4</v>
       </c>
       <c r="J3">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="K3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L3">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="M3">
         <v>1.33</v>
@@ -852,10 +852,10 @@
         <v>4.32</v>
       </c>
       <c r="S3">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="T3">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U3">
         <v>1.67</v>
